--- a/data/HR1_2/A_BJ_35_1/A_BJ_35_1_2020.xlsx
+++ b/data/HR1_2/A_BJ_35_1/A_BJ_35_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_BJ_35_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_BJ_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B25549-2F8D-468B-821C-725B578DA5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874FB536-1600-4180-8114-74CD394004A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -5880,8 +5880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEEFF66-812B-4A62-A958-597678292A9C}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12839,7 +12839,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" activeCellId="1" sqref="A3:XFD4 A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
